--- a/result/bus_final.xlsx
+++ b/result/bus_final.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.000000000000021</v>
+        <v>1.002697602681546</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>11.90373486844958</v>
+        <v>-26.49633538470901</v>
       </c>
       <c r="E2">
-        <v>-12.0964768612156</v>
+        <v>18.9738099695438</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.000599999999999</v>
+        <v>1.00082054181485</v>
       </c>
       <c r="C3">
-        <v>0.1325555460840509</v>
+        <v>-0.2388493521489393</v>
       </c>
       <c r="D3">
-        <v>-1.651818681835948e-10</v>
+        <v>-2.05865598372138e-06</v>
       </c>
       <c r="E3">
-        <v>-79.23447880960595</v>
+        <v>-1.180559071853674e-06</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.000599999999999</v>
+        <v>1.00082054181485</v>
       </c>
       <c r="C4">
-        <v>0.1325555460840509</v>
+        <v>-0.2388493521489393</v>
       </c>
       <c r="D4">
-        <v>-1.651818681835948e-10</v>
+        <v>-2.05865598372138e-06</v>
       </c>
       <c r="E4">
-        <v>-79.23447880960595</v>
+        <v>-1.180559071853674e-06</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.000000000000003</v>
+        <v>1.000737413502135</v>
       </c>
       <c r="C5">
-        <v>0.2102930950483565</v>
+        <v>-0.2572647854030278</v>
       </c>
       <c r="D5">
-        <v>6.649653050416759e-12</v>
+        <v>3.577004366551351e-07</v>
       </c>
       <c r="E5">
-        <v>43.58803150902999</v>
+        <v>6.1170175307837e-08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.000450150037196</v>
+        <v>1.000654388605339</v>
       </c>
       <c r="C6">
-        <v>0.1710675114196512</v>
+        <v>-0.2756832761110466</v>
       </c>
       <c r="D6">
-        <v>-0.1470000000019649</v>
+        <v>0.5780021783934064</v>
       </c>
       <c r="E6">
-        <v>-38.44015841077499</v>
+        <v>1.334167359265306e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.999969578776831</v>
+        <v>1.000598529972923</v>
       </c>
       <c r="C7">
-        <v>0.2348009694924116</v>
+        <v>-0.2933083248813378</v>
       </c>
       <c r="D7">
-        <v>-0.1470000000098317</v>
+        <v>0.3779811065221558</v>
       </c>
       <c r="E7">
-        <v>19.97307479479029</v>
+        <v>2.610938580197616e-06</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.999927213420755</v>
+        <v>1.000566266053257</v>
       </c>
       <c r="C8">
-        <v>0.2482162913988625</v>
+        <v>-0.3093799700521505</v>
       </c>
       <c r="D8">
-        <v>-0.1470000000113401</v>
+        <v>0.3779320130240093</v>
       </c>
       <c r="E8">
-        <v>11.90668625456479</v>
+        <v>-0.3779204368531048</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.000172277403498</v>
+        <v>1.000579971267382</v>
       </c>
       <c r="C9">
-        <v>0.225156845726213</v>
+        <v>-0.3172888359170663</v>
       </c>
       <c r="D9">
-        <v>-0.1252999999948841</v>
+        <v>0.3345228828523266</v>
       </c>
       <c r="E9">
-        <v>-17.8508648134749</v>
+        <v>-0.3345085275752477</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9999821177385891</v>
+        <v>1.00060131338944</v>
       </c>
       <c r="C10">
-        <v>0.2498454481053466</v>
+        <v>-0.3238396541049574</v>
       </c>
       <c r="D10">
-        <v>-0.1470000000174304</v>
+        <v>0.3779083754404201</v>
       </c>
       <c r="E10">
-        <v>24.73888914628294</v>
+        <v>-0.3778914425623004</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.000389001114897</v>
+        <v>1.000601265916897</v>
       </c>
       <c r="C11">
-        <v>0.2070184490989854</v>
+        <v>-0.3288094872374159</v>
       </c>
       <c r="D11">
-        <v>-0.05180000001156923</v>
+        <v>0.2294903058903628</v>
       </c>
       <c r="E11">
-        <v>-7.724422692625986</v>
+        <v>-0.2294713761986298</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.000607987694502</v>
+        <v>1.000606452867703</v>
       </c>
       <c r="C12">
-        <v>0.1848651557068955</v>
+        <v>-0.3328478822558539</v>
       </c>
       <c r="D12">
-        <v>7.439174276591132e-12</v>
+        <v>0.2070722916539313</v>
       </c>
       <c r="E12">
-        <v>-32.3621544991313</v>
+        <v>-0.2070516502467431</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.000049327941533</v>
+        <v>1.000616361377519</v>
       </c>
       <c r="C13">
-        <v>0.2495348637369531</v>
+        <v>-0.3360458120600212</v>
       </c>
       <c r="D13">
-        <v>-0.1470000000169912</v>
+        <v>0.293856184275529</v>
       </c>
       <c r="E13">
-        <v>22.60917144663525</v>
+        <v>-0.2938341442810471</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.000023752017079</v>
+        <v>1.00063870437566</v>
       </c>
       <c r="C14">
-        <v>0.2538725004929281</v>
+        <v>-0.3370289774514505</v>
       </c>
       <c r="D14">
-        <v>-0.1063999999971271</v>
+        <v>-0.4999848678085261</v>
       </c>
       <c r="E14">
-        <v>-4.620371940213923</v>
+        <v>-0.2126247458800294</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.000015092464498</v>
+        <v>1.000551969994761</v>
       </c>
       <c r="C15">
-        <v>0.2192527064932041</v>
+        <v>-0.2965867513021286</v>
       </c>
       <c r="D15">
-        <v>-0.08540000000068454</v>
+        <v>0.2548328579392056</v>
       </c>
       <c r="E15">
-        <v>-1.340311107538382</v>
+        <v>-0.2548246998448092</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.000018831733788</v>
+        <v>1.000217806012907</v>
       </c>
       <c r="C16">
-        <v>0.2671396359774654</v>
+        <v>-0.3338916515555381</v>
       </c>
       <c r="D16">
-        <v>-0.0931000000016545</v>
+        <v>0.4196506737282937</v>
       </c>
       <c r="E16">
-        <v>-4.567710136116392</v>
+        <v>-0.4196364700393282</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9999774616845849</v>
+        <v>0.999958967273145</v>
       </c>
       <c r="C17">
-        <v>0.3481581386523828</v>
+        <v>-0.3521134852694893</v>
       </c>
       <c r="D17">
-        <v>-0.1469999999990022</v>
+        <v>0.2933888324741679</v>
       </c>
       <c r="E17">
-        <v>3.075415418172927</v>
+        <v>-0.2933726000337571</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9999777186814514</v>
+        <v>0.9997627817902098</v>
       </c>
       <c r="C18">
-        <v>0.3870749048864857</v>
+        <v>-0.365933886489018</v>
       </c>
       <c r="D18">
-        <v>-0.1462999999993816</v>
+        <v>0.5843894336755074</v>
       </c>
       <c r="E18">
-        <v>2.538527769858645</v>
+        <v>-0.5843718201141866</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.000001632011137</v>
+        <v>0.9997015036504466</v>
       </c>
       <c r="C19">
-        <v>0.3906123544950821</v>
+        <v>-0.3702521226481452</v>
       </c>
       <c r="D19">
-        <v>-0.1470000000012647</v>
+        <v>0.335098870657734</v>
       </c>
       <c r="E19">
-        <v>0.287788970443922</v>
+        <v>-0.3350806602078896</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9999749788342605</v>
+        <v>1.000708894503957</v>
       </c>
       <c r="C20">
-        <v>0.2538137475451386</v>
+        <v>-0.3264375247688985</v>
       </c>
       <c r="D20">
-        <v>5.524610716817202e-13</v>
+        <v>-0.4999877847181373</v>
       </c>
       <c r="E20">
-        <v>0.3398251115013055</v>
+        <v>-0.2742890711641068</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.000053477955399</v>
+        <v>1.000570350211631</v>
       </c>
       <c r="C21">
-        <v>0.2472269261446012</v>
+        <v>-0.3392853407102217</v>
       </c>
       <c r="D21">
-        <v>1.633049273065679e-12</v>
+        <v>0.2518320911438962</v>
       </c>
       <c r="E21">
-        <v>-0.1976689127702696</v>
+        <v>-0.2518089699433374</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9999201244174056</v>
+        <v>1.000589114866041</v>
       </c>
       <c r="C22">
-        <v>0.3254896599217326</v>
+        <v>-0.3405203740984546</v>
       </c>
       <c r="D22">
-        <v>-0.1260000000011979</v>
+        <v>0.2714218491670599</v>
       </c>
       <c r="E22">
-        <v>6.119865739422755</v>
+        <v>-0.2713979455046411</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.000599999999999</v>
+        <v>1.00082054181485</v>
       </c>
       <c r="C23">
-        <v>0.1325555460840509</v>
+        <v>-0.2388493521489393</v>
       </c>
       <c r="D23">
-        <v>-1.651818681835948e-10</v>
+        <v>-2.05865598372138e-06</v>
       </c>
       <c r="E23">
-        <v>-79.23447880960595</v>
+        <v>-1.180559071853674e-06</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.000000000000023</v>
+        <v>0.9979634733134436</v>
       </c>
       <c r="C24">
-        <v>0.6674172955408997</v>
+        <v>-0.2895729402305681</v>
       </c>
       <c r="D24">
-        <v>-2.87413816704718e-11</v>
+        <v>-2.674789762817342e-05</v>
       </c>
       <c r="E24">
-        <v>0.6105039067548559</v>
+        <v>-8.828623743198965e-06</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9997699007235281</v>
+        <v>0.995912944042469</v>
       </c>
       <c r="C25">
-        <v>1.001602928841177</v>
+        <v>-0.3261693151916487</v>
       </c>
       <c r="D25">
-        <v>-4.999999999999124</v>
+        <v>7.499965030927934</v>
       </c>
       <c r="E25">
-        <v>17.68980244206461</v>
+        <v>-1.134019675096826e-05</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9997790088075561</v>
+        <v>0.9971575478141583</v>
       </c>
       <c r="C26">
-        <v>0.853222567704169</v>
+        <v>-0.3039321440891948</v>
       </c>
       <c r="D26">
-        <v>-8.594652767257571e-13</v>
+        <v>-1.000034736435414</v>
       </c>
       <c r="E26">
-        <v>1.493955833330103</v>
+        <v>-1.129653787150867e-05</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.000599999999999</v>
+        <v>1.00082054181485</v>
       </c>
       <c r="C27">
-        <v>0.1325555460840509</v>
+        <v>-0.2388493521489393</v>
       </c>
       <c r="D27">
-        <v>-1.651818681835948e-10</v>
+        <v>-2.05865598372138e-06</v>
       </c>
       <c r="E27">
-        <v>-79.23447880960595</v>
+        <v>-1.180559071853674e-06</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.000000000000003</v>
+        <v>1.000657175473806</v>
       </c>
       <c r="C28">
-        <v>0.2770777588240433</v>
+        <v>-0.2951734991781508</v>
       </c>
       <c r="D28">
-        <v>-2.580587826761516e-11</v>
+        <v>-1.546243815317134e-06</v>
       </c>
       <c r="E28">
-        <v>4.184129765854851</v>
+        <v>-8.791435827364988e-07</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9997005556993199</v>
+        <v>1.000494776203906</v>
       </c>
       <c r="C29">
-        <v>0.3924955415515699</v>
+        <v>-0.3515159857222125</v>
       </c>
       <c r="D29">
-        <v>-0.4000000000185662</v>
+        <v>0.5998647408461163</v>
       </c>
       <c r="E29">
-        <v>3.798422663893911</v>
+        <v>-0.5998650094865937</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9996237209868072</v>
+        <v>1.000364009045022</v>
       </c>
       <c r="C30">
-        <v>0.4797884522550679</v>
+        <v>-0.4012646286587875</v>
       </c>
       <c r="D30">
-        <v>-0.4000000000181754</v>
+        <v>-0.0003612972467934085</v>
       </c>
       <c r="E30">
-        <v>9.003580832706776</v>
+        <v>0.0003640811282105668</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.000298092425485</v>
+        <v>1.000234617364404</v>
       </c>
       <c r="C31">
-        <v>0.4701172574962347</v>
+        <v>-0.4398312948719569</v>
       </c>
       <c r="D31">
-        <v>-0.4000000000043603</v>
+        <v>0.2992997881220987</v>
       </c>
       <c r="E31">
-        <v>-9.424891815457766</v>
+        <v>-0.2992931457725702</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.000259107248878</v>
+        <v>1.000120999489424</v>
       </c>
       <c r="C32">
-        <v>0.5246304239162296</v>
+        <v>-0.4751075138340532</v>
       </c>
       <c r="D32">
-        <v>-0.4000000000078963</v>
+        <v>-0.001071946895051785</v>
       </c>
       <c r="E32">
-        <v>2.160734617606832</v>
+        <v>0.001082656176446233</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.000312369854599</v>
+        <v>1.000069057827454</v>
       </c>
       <c r="C33">
-        <v>0.5521063377450723</v>
+        <v>-0.4972397133857588</v>
       </c>
       <c r="D33">
-        <v>-0.4000000000021579</v>
+        <v>0.3987047858620749</v>
       </c>
       <c r="E33">
-        <v>4.041902075259655</v>
+        <v>-0.3986907687679347</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.000602215656173</v>
+        <v>1.00003770072859</v>
       </c>
       <c r="C34">
-        <v>0.54975019378621</v>
+        <v>-0.514976928361789</v>
       </c>
       <c r="D34">
-        <v>-0.4000000000010946</v>
+        <v>0.3984921899955429</v>
       </c>
       <c r="E34">
-        <v>-18.39575713122882</v>
+        <v>-0.3984751295756913</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9995479719766727</v>
+        <v>1.000026870643594</v>
       </c>
       <c r="C35">
-        <v>0.6742476883417123</v>
+        <v>-0.5283202439965178</v>
       </c>
       <c r="D35">
-        <v>-0.4000000000029037</v>
+        <v>-0.499987537580221</v>
       </c>
       <c r="E35">
-        <v>20.24739438870675</v>
+        <v>0.001709738620909327</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.000024771832484</v>
+        <v>0.9999757097909894</v>
       </c>
       <c r="C36">
-        <v>0.6331449591401309</v>
+        <v>-0.5393072289565728</v>
       </c>
       <c r="D36">
-        <v>-0.3999999999974809</v>
+        <v>0.6982101188301166</v>
       </c>
       <c r="E36">
-        <v>-12.40732165130855</v>
+        <v>-0.6981891000646154</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9996328653931383</v>
+        <v>1.000230172644269</v>
       </c>
       <c r="C37">
-        <v>0.5605017419501847</v>
+        <v>-0.4269321340013721</v>
       </c>
       <c r="D37">
-        <v>-7.290779091562172e-12</v>
+        <v>-0.000226605920603655</v>
       </c>
       <c r="E37">
-        <v>11.63211938809771</v>
+        <v>0.0002287226286481556</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9995727952059291</v>
+        <v>1.000195557277598</v>
       </c>
       <c r="C38">
-        <v>0.6045547453537092</v>
+        <v>-0.4432882713615922</v>
       </c>
       <c r="D38">
-        <v>2.293970569056114e-12</v>
+        <v>-0.4999985951276029</v>
       </c>
       <c r="E38">
-        <v>9.413262923037093</v>
+        <v>0.000212158309709904</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9996900346867545</v>
+        <v>1.000028779626601</v>
       </c>
       <c r="C39">
-        <v>0.6350471605100999</v>
+        <v>-0.4566365539187149</v>
       </c>
       <c r="D39">
-        <v>-0.4000000000002576</v>
+        <v>0.3997734813458443</v>
       </c>
       <c r="E39">
-        <v>0.9972776179184787</v>
+        <v>-0.3997709907019643</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.000240558966567</v>
+        <v>1.000028775284273</v>
       </c>
       <c r="C40">
-        <v>0.3707704129301104</v>
+        <v>-0.4566369014086016</v>
       </c>
       <c r="D40">
-        <v>-4.494876693073024e-13</v>
+        <v>0.3997838866816653</v>
       </c>
       <c r="E40">
-        <v>-8.158931199458264</v>
+        <v>-0.3997813960344792</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.000786197009712</v>
+        <v>1.00006337311547</v>
       </c>
       <c r="C41">
-        <v>0.2818757251147767</v>
+        <v>-0.44028173968584</v>
       </c>
       <c r="D41">
-        <v>-0.6999999999993765</v>
+        <v>0.3998399412030237</v>
       </c>
       <c r="E41">
-        <v>-9.845792622384554</v>
+        <v>-0.3998384235974429</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.000408788243711</v>
+        <v>0.9998248162556539</v>
       </c>
       <c r="C42">
-        <v>0.5478792303398893</v>
+        <v>-0.5029365004218924</v>
       </c>
       <c r="D42">
-        <v>-0.400000000007632</v>
+        <v>-0.001477944128136823</v>
       </c>
       <c r="E42">
-        <v>-10.19371130812672</v>
+        <v>0.001490137869757464</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1.000475545840635</v>
+        <v>0.9996272499500083</v>
       </c>
       <c r="C43">
-        <v>0.5313650157151365</v>
+        <v>-0.5215184031415864</v>
       </c>
       <c r="D43">
-        <v>1.147901218523373e-12</v>
+        <v>0.3982822918507696</v>
       </c>
       <c r="E43">
-        <v>-5.233707496092775</v>
+        <v>-0.398269235422683</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9995848131452129</v>
+        <v>0.9996585624678918</v>
       </c>
       <c r="C44">
-        <v>0.8971729287881584</v>
+        <v>-0.5162474348873705</v>
       </c>
       <c r="D44">
-        <v>-0.4000000000009362</v>
+        <v>0.398368379866633</v>
       </c>
       <c r="E44">
-        <v>12.12598671278994</v>
+        <v>-0.3983556959324641</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>1.00011238767836</v>
+        <v>0.9994610870265628</v>
       </c>
       <c r="C45">
-        <v>0.6560105557482258</v>
+        <v>-0.5348246558590277</v>
       </c>
       <c r="D45">
-        <v>-1.890362866241446e-13</v>
+        <v>0.3980718191808427</v>
       </c>
       <c r="E45">
-        <v>4.353433053435546</v>
+        <v>-0.398058100061695</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.999552998216112</v>
+        <v>0.9998607547029679</v>
       </c>
       <c r="C46">
-        <v>0.7609801060063091</v>
+        <v>-0.5416171429510681</v>
       </c>
       <c r="D46">
-        <v>-0.4999999999997953</v>
+        <v>0.3981168871231259</v>
       </c>
       <c r="E46">
-        <v>2.941877203878014</v>
+        <v>-0.3980953124722181</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9994972100534635</v>
+        <v>0.9998513840917449</v>
       </c>
       <c r="C47">
-        <v>0.8137711231218546</v>
+        <v>-0.5492596599310701</v>
       </c>
       <c r="D47">
-        <v>9.191258865115515e-14</v>
+        <v>0.2979695081553476</v>
       </c>
       <c r="E47">
-        <v>6.301913947844904</v>
+        <v>-0.2979463976913286</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.000599999999999</v>
+        <v>1.00082054181485</v>
       </c>
       <c r="C48">
-        <v>0.1325555460840509</v>
+        <v>-0.2388493521489393</v>
       </c>
       <c r="D48">
-        <v>-1.651818681835948e-10</v>
+        <v>-2.05865598372138e-06</v>
       </c>
       <c r="E48">
-        <v>-79.23447880960595</v>
+        <v>-1.180559071853674e-06</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.000000000000009</v>
+        <v>1.000513302864211</v>
       </c>
       <c r="C49">
-        <v>0.2018070149090929</v>
+        <v>-0.2779823673728393</v>
       </c>
       <c r="D49">
-        <v>-4.026085020925052e-12</v>
+        <v>-3.148570215822038e-06</v>
       </c>
       <c r="E49">
-        <v>53.95138151981261</v>
+        <v>-1.735728401274171e-06</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.000699999999989</v>
+        <v>1.000206530739358</v>
       </c>
       <c r="C50">
-        <v>0.1263013851198772</v>
+        <v>-0.317139405425304</v>
       </c>
       <c r="D50">
-        <v>1.20373155887421e-12</v>
+        <v>-4.564034446598424e-05</v>
       </c>
       <c r="E50">
-        <v>-69.5216945846077</v>
+        <v>-2.153044472059683e-06</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.000399999999998</v>
+        <v>1.000119068017713</v>
       </c>
       <c r="C51">
-        <v>0.1603646718746394</v>
+        <v>-0.3270051045191191</v>
       </c>
       <c r="D51">
-        <v>-0.03499999999899703</v>
+        <v>1.120025044469608</v>
       </c>
       <c r="E51">
-        <v>16.68759424649704</v>
+        <v>-2.479195928437213e-06</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.000499999999996</v>
+        <v>1.000084108185011</v>
       </c>
       <c r="C52">
-        <v>0.1496231264782562</v>
+        <v>-0.3353279305399989</v>
       </c>
       <c r="D52">
-        <v>-0.03000000000849443</v>
+        <v>1.200075842926862</v>
       </c>
       <c r="E52">
-        <v>-16.57869745791843</v>
+        <v>-1.200083624399825</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.000199999999998</v>
+        <v>1.000076512020994</v>
       </c>
       <c r="C53">
-        <v>0.1833183029414267</v>
+        <v>-0.3387750784044432</v>
       </c>
       <c r="D53">
-        <v>-0.03999999999227252</v>
+        <v>0.9501090371006808</v>
       </c>
       <c r="E53">
-        <v>10.46062431989681</v>
+        <v>-0.9501172638729676</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.000150000000001</v>
+        <v>1.000090572042529</v>
       </c>
       <c r="C54">
-        <v>0.1888947338596669</v>
+        <v>-0.3383618320923105</v>
       </c>
       <c r="D54">
-        <v>-5.739798393522566e-12</v>
+        <v>-0.3000055089072129</v>
       </c>
       <c r="E54">
-        <v>2.077724659709788</v>
+        <v>-0.0001334494506183401</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.000029999999992</v>
+        <v>0.9999875984724159</v>
       </c>
       <c r="C55">
-        <v>0.2032414626451757</v>
+        <v>-0.3464500880296919</v>
       </c>
       <c r="D55">
-        <v>-0.04500000000060501</v>
+        <v>0.899815746988521</v>
       </c>
       <c r="E55">
-        <v>28.97132071212014</v>
+        <v>-2.141727823657021e-06</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.000055999999983</v>
+        <v>0.9998110825560164</v>
       </c>
       <c r="C56">
-        <v>0.2023920049975501</v>
+        <v>-0.3745313638325077</v>
       </c>
       <c r="D56">
-        <v>-0.06500000000086072</v>
+        <v>1.29966293025758</v>
       </c>
       <c r="E56">
-        <v>-0.1643253077709813</v>
+        <v>-1.299668785832119</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.000075000000012</v>
+        <v>0.9996643951127117</v>
       </c>
       <c r="C57">
-        <v>0.2018941009779742</v>
+        <v>-0.3973374404993696</v>
       </c>
       <c r="D57">
-        <v>-0.01500000000321526</v>
+        <v>0.9695067015794328</v>
       </c>
       <c r="E57">
-        <v>-0.03312881295994933</v>
+        <v>-1.919113967329897e-06</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.000089999999999</v>
+        <v>0.999577736034482</v>
       </c>
       <c r="C58">
-        <v>0.2015258418035188</v>
+        <v>-0.415743333184087</v>
       </c>
       <c r="D58">
-        <v>-0.04999999999126958</v>
+        <v>0.999378501808393</v>
       </c>
       <c r="E58">
-        <v>-3.954997220603828</v>
+        <v>-0.9993835619251433</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.000009999999997</v>
+        <v>0.9994995288323182</v>
       </c>
       <c r="C59">
-        <v>0.2116447604892731</v>
+        <v>-0.4331554398907389</v>
       </c>
       <c r="D59">
-        <v>-1.311413477811385e-11</v>
+        <v>-0.0007605277887951487</v>
       </c>
       <c r="E59">
-        <v>17.8193157089514</v>
+        <v>0.0007559607748820327</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.000027000000005</v>
+        <v>0.9994372845306275</v>
       </c>
       <c r="C60">
-        <v>0.2105759702012711</v>
+        <v>-0.4442507392345495</v>
       </c>
       <c r="D60">
-        <v>-0.04060000000001855</v>
+        <v>0.8111729312358044</v>
       </c>
       <c r="E60">
-        <v>11.54123833541084</v>
+        <v>-0.8111772685866907</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.000319999999998</v>
+        <v>0.999393567906849</v>
       </c>
       <c r="C61">
-        <v>0.1784757802111639</v>
+        <v>-0.4520469510868164</v>
       </c>
       <c r="D61">
-        <v>-0.05250000000474853</v>
+        <v>1.04912720827858</v>
       </c>
       <c r="E61">
-        <v>-22.53780054507462</v>
+        <v>-1.049131378014524</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.000104495842717</v>
+        <v>0.9993766151867124</v>
       </c>
       <c r="C62">
-        <v>0.2027457083515535</v>
+        <v>-0.4550709914403444</v>
       </c>
       <c r="D62">
-        <v>-0.04340000000195495</v>
+        <v>0.8671075694611259</v>
       </c>
       <c r="E62">
-        <v>10.52836210943754</v>
+        <v>-0.8671116639564505</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.000294595884553</v>
+        <v>0.9994858914822263</v>
       </c>
       <c r="C63">
-        <v>0.1802370726991041</v>
+        <v>-0.4385743212388087</v>
       </c>
       <c r="D63">
-        <v>-0.03359999999526442</v>
+        <v>0.8711921108147537</v>
       </c>
       <c r="E63">
-        <v>-17.64980701739604</v>
+        <v>-0.8711964825648195</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.000214030884961</v>
+        <v>0.9994892887761517</v>
       </c>
       <c r="C64">
-        <v>0.1893929786938668</v>
+        <v>-0.4409555954278133</v>
       </c>
       <c r="D64">
-        <v>-0.04269999999513575</v>
+        <v>0.8531613130567027</v>
       </c>
       <c r="E64">
-        <v>21.47281091043531</v>
+        <v>-0.853165541188614</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.000574859636535</v>
+        <v>0.9995093637914759</v>
       </c>
       <c r="C65">
-        <v>0.1491194347721943</v>
+        <v>-0.4403620905859756</v>
       </c>
       <c r="D65">
-        <v>-4.874864401038792e-12</v>
+        <v>-0.5000026823386864</v>
       </c>
       <c r="E65">
-        <v>-17.51413970369322</v>
+        <v>0.0008499558481135884</v>
       </c>
     </row>
   </sheetData>

--- a/result/bus_final.xlsx
+++ b/result/bus_final.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.002697602681546</v>
+        <v>1.002183607538833</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-26.49633538470901</v>
+        <v>-11.86198048099025</v>
       </c>
       <c r="E2">
-        <v>18.9738099695438</v>
+        <v>-0.02044149687633869</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.00082054181485</v>
+        <v>1.000739582002896</v>
       </c>
       <c r="C3">
-        <v>-0.2388493521489393</v>
+        <v>-0.04769143320874834</v>
       </c>
       <c r="D3">
-        <v>-2.05865598372138e-06</v>
+        <v>-1.663329647586774e-06</v>
       </c>
       <c r="E3">
-        <v>-1.180559071853674e-06</v>
+        <v>-9.612380030588312e-07</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.00082054181485</v>
+        <v>1.000739582002896</v>
       </c>
       <c r="C4">
-        <v>-0.2388493521489393</v>
+        <v>-0.04769143320874834</v>
       </c>
       <c r="D4">
-        <v>-2.05865598372138e-06</v>
+        <v>-1.663329647586774e-06</v>
       </c>
       <c r="E4">
-        <v>-1.180559071853674e-06</v>
+        <v>-9.612380030588312e-07</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.000737413502135</v>
+        <v>1.000639173333824</v>
       </c>
       <c r="C5">
-        <v>-0.2572647854030278</v>
+        <v>-0.05064248038155458</v>
       </c>
       <c r="D5">
-        <v>3.577004366551351e-07</v>
+        <v>-2.112679681207107e-07</v>
       </c>
       <c r="E5">
-        <v>6.1170175307837e-08</v>
+        <v>-2.153575539794645e-07</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.000654388605339</v>
+        <v>1.000538767304721</v>
       </c>
       <c r="C6">
-        <v>-0.2756832761110466</v>
+        <v>-0.05359411956235027</v>
       </c>
       <c r="D6">
-        <v>0.5780021783934064</v>
+        <v>0.1267005178890806</v>
       </c>
       <c r="E6">
-        <v>1.334167359265306e-06</v>
+        <v>5.004415576561195e-07</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.000598529972923</v>
+        <v>1.000444297717543</v>
       </c>
       <c r="C7">
-        <v>-0.2933083248813378</v>
+        <v>-0.0563718009732472</v>
       </c>
       <c r="D7">
-        <v>0.3779811065221558</v>
+        <v>0.1700912352238335</v>
       </c>
       <c r="E7">
-        <v>2.610938580197616e-06</v>
+        <v>1.183422060122859e-06</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.000566266053257</v>
+        <v>1.000363830760296</v>
       </c>
       <c r="C8">
-        <v>-0.3093799700521505</v>
+        <v>-0.05873814585916631</v>
       </c>
       <c r="D8">
-        <v>0.3779320130240093</v>
+        <v>0.1581689378199475</v>
       </c>
       <c r="E8">
-        <v>-0.3779204368531048</v>
+        <v>1.795219171695379e-06</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.000579971267382</v>
+        <v>1.000316189730834</v>
       </c>
       <c r="C9">
-        <v>-0.3172888359170663</v>
+        <v>-0.06013927711238109</v>
       </c>
       <c r="D9">
-        <v>0.3345228828523266</v>
+        <v>0.1784546562733332</v>
       </c>
       <c r="E9">
-        <v>-0.3345085275752477</v>
+        <v>2.215216292068774e-06</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.00060131338944</v>
+        <v>1.000276908910608</v>
       </c>
       <c r="C10">
-        <v>-0.3238396541049574</v>
+        <v>-0.06129461316235298</v>
       </c>
       <c r="D10">
-        <v>0.3779083754404201</v>
+        <v>0.169338229762838</v>
       </c>
       <c r="E10">
-        <v>-0.3778914425623004</v>
+        <v>2.594126253164088e-06</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.000601265916897</v>
+        <v>1.000244156349319</v>
       </c>
       <c r="C11">
-        <v>-0.3288094872374159</v>
+        <v>-0.06225800683513202</v>
       </c>
       <c r="D11">
-        <v>0.2294903058903628</v>
+        <v>0.1266217521779831</v>
       </c>
       <c r="E11">
-        <v>-0.2294713761986298</v>
+        <v>2.87885901616508e-06</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.000606452867703</v>
+        <v>1.000217336077708</v>
       </c>
       <c r="C12">
-        <v>-0.3328478822558539</v>
+        <v>-0.06304694909042134</v>
       </c>
       <c r="D12">
-        <v>0.2070722916539313</v>
+        <v>0.148306329255212</v>
       </c>
       <c r="E12">
-        <v>-0.2070516502467431</v>
+        <v>3.118486007273766e-06</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.000616361377519</v>
+        <v>1.000197464078999</v>
       </c>
       <c r="C13">
-        <v>-0.3360458120600212</v>
+        <v>-0.06363152369586131</v>
       </c>
       <c r="D13">
-        <v>0.293856184275529</v>
+        <v>0.1496929520751331</v>
       </c>
       <c r="E13">
-        <v>-0.2938341442810471</v>
+        <v>3.311694307527984e-06</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.00063870437566</v>
+        <v>1.000192995411033</v>
       </c>
       <c r="C14">
-        <v>-0.3370289774514505</v>
+        <v>-0.06376296837383899</v>
       </c>
       <c r="D14">
-        <v>-0.4999848678085261</v>
+        <v>-0.01999314969495507</v>
       </c>
       <c r="E14">
-        <v>-0.2126247458800294</v>
+        <v>3.409579021597146e-06</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.000551969994761</v>
+        <v>1.000418055953205</v>
       </c>
       <c r="C15">
-        <v>-0.2965867513021286</v>
+        <v>-0.05652664488057805</v>
       </c>
       <c r="D15">
-        <v>0.2548328579392056</v>
+        <v>0.128814979326976</v>
       </c>
       <c r="E15">
-        <v>-0.2548246998448092</v>
+        <v>1.214477290694196e-06</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.000217806012907</v>
+        <v>1.000234871758201</v>
       </c>
       <c r="C16">
-        <v>-0.3338916515555381</v>
+        <v>-0.05949902356524583</v>
       </c>
       <c r="D16">
-        <v>0.4196506737282937</v>
+        <v>0.1279961612887031</v>
       </c>
       <c r="E16">
-        <v>-0.4196364700393282</v>
+        <v>1.951427526176335e-06</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.999958967273145</v>
+        <v>1.000136339264774</v>
       </c>
       <c r="C17">
-        <v>-0.3521134852694893</v>
+        <v>-0.06008049341768287</v>
       </c>
       <c r="D17">
-        <v>0.2933888324741679</v>
+        <v>0.1699256475313206</v>
       </c>
       <c r="E17">
-        <v>-0.2933726000337571</v>
+        <v>2.068593195949373e-06</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9997627817902098</v>
+        <v>1.000078204366175</v>
       </c>
       <c r="C18">
-        <v>-0.365933886489018</v>
+        <v>-0.06042360115259417</v>
       </c>
       <c r="D18">
-        <v>0.5843894336755074</v>
+        <v>0.1173712373843118</v>
       </c>
       <c r="E18">
-        <v>-0.5843718201141866</v>
+        <v>2.146706690516641e-06</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9997015036504466</v>
+        <v>1.000052293098744</v>
       </c>
       <c r="C19">
-        <v>-0.3702521226481452</v>
+        <v>-0.0605765392966456</v>
       </c>
       <c r="D19">
-        <v>0.335098870657734</v>
+        <v>0.1271460397738962</v>
       </c>
       <c r="E19">
-        <v>-0.3350806602078896</v>
+        <v>2.180184650426279e-06</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.000708894503957</v>
+        <v>1.000283020015969</v>
       </c>
       <c r="C20">
-        <v>-0.3264375247688985</v>
+        <v>-0.0612585130763694</v>
       </c>
       <c r="D20">
-        <v>-0.4999877847181373</v>
+        <v>-0.02999431278889257</v>
       </c>
       <c r="E20">
-        <v>-0.2742890711641068</v>
+        <v>2.63802229146001e-06</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.000570350211631</v>
+        <v>1.000160974391529</v>
       </c>
       <c r="C21">
-        <v>-0.3392853407102217</v>
+        <v>-0.06384687066604081</v>
       </c>
       <c r="D21">
-        <v>0.2518320911438962</v>
+        <v>0.179073542205282</v>
       </c>
       <c r="E21">
-        <v>-0.2518089699433374</v>
+        <v>3.353295357565249e-06</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.000589114866041</v>
+        <v>1.000169487084572</v>
       </c>
       <c r="C22">
-        <v>-0.3405203740984546</v>
+        <v>-0.06390169013554975</v>
       </c>
       <c r="D22">
-        <v>0.2714218491670599</v>
+        <v>0.1153682271699088</v>
       </c>
       <c r="E22">
-        <v>-0.2713979455046411</v>
+        <v>3.452279743337063e-06</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.00082054181485</v>
+        <v>1.000739582002896</v>
       </c>
       <c r="C23">
-        <v>-0.2388493521489393</v>
+        <v>-0.04769143320874834</v>
       </c>
       <c r="D23">
-        <v>-2.05865598372138e-06</v>
+        <v>-1.663329647586774e-06</v>
       </c>
       <c r="E23">
-        <v>-1.180559071853674e-06</v>
+        <v>-9.612380030588312e-07</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9979634733134436</v>
+        <v>0.9985450701951295</v>
       </c>
       <c r="C24">
-        <v>-0.2895729402305681</v>
+        <v>-0.08668997522891696</v>
       </c>
       <c r="D24">
-        <v>-2.674789762817342e-05</v>
+        <v>-1.969325951487064e-05</v>
       </c>
       <c r="E24">
-        <v>-8.828623743198965e-06</v>
+        <v>-6.55094370743893e-06</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.995912944042469</v>
+        <v>0.9970823097172783</v>
       </c>
       <c r="C25">
-        <v>-0.3261693151916487</v>
+        <v>-0.1127843624786694</v>
       </c>
       <c r="D25">
-        <v>7.499965030927934</v>
+        <v>4.999972900376965</v>
       </c>
       <c r="E25">
-        <v>-1.134019675096826e-05</v>
+        <v>-8.416050804508843e-06</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9971575478141583</v>
+        <v>0.9978136703993278</v>
       </c>
       <c r="C26">
-        <v>-0.3039321440891948</v>
+        <v>-0.09972759975829269</v>
       </c>
       <c r="D26">
-        <v>-1.000034736435414</v>
+        <v>-2.638914050834108e-05</v>
       </c>
       <c r="E26">
-        <v>-1.129653787150867e-05</v>
+        <v>-7.749918927711358e-06</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.00082054181485</v>
+        <v>1.000739582002896</v>
       </c>
       <c r="C27">
-        <v>-0.2388493521489393</v>
+        <v>-0.04769143320874834</v>
       </c>
       <c r="D27">
-        <v>-2.05865598372138e-06</v>
+        <v>-1.663329647586774e-06</v>
       </c>
       <c r="E27">
-        <v>-1.180559071853674e-06</v>
+        <v>-9.612380030588312e-07</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.000657175473806</v>
+        <v>1.000482051773986</v>
       </c>
       <c r="C28">
-        <v>-0.2951734991781508</v>
+        <v>-0.05619821362738697</v>
       </c>
       <c r="D28">
-        <v>-1.546243815317134e-06</v>
+        <v>-7.420563983228881e-06</v>
       </c>
       <c r="E28">
-        <v>-8.791435827364988e-07</v>
+        <v>-4.292945265517968e-06</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.000494776203906</v>
+        <v>1.000224542403715</v>
       </c>
       <c r="C29">
-        <v>-0.3515159857222125</v>
+        <v>-0.06470937441672112</v>
       </c>
       <c r="D29">
-        <v>0.5998647408461163</v>
+        <v>0.1999217947401365</v>
       </c>
       <c r="E29">
-        <v>-0.5998650094865937</v>
+        <v>-7.459059159697754e-06</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.000364009045022</v>
+        <v>0.9999914194049816</v>
       </c>
       <c r="C30">
-        <v>-0.4012646286587875</v>
+        <v>-0.07241628497853787</v>
       </c>
       <c r="D30">
-        <v>-0.0003612972467934085</v>
+        <v>-0.000192742973360308</v>
       </c>
       <c r="E30">
-        <v>0.0003640811282105668</v>
+        <v>0.0001641968003291888</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.000234617364404</v>
+        <v>0.9998119236881834</v>
       </c>
       <c r="C31">
-        <v>-0.4398312948719569</v>
+        <v>-0.07834962267729836</v>
       </c>
       <c r="D31">
-        <v>0.2992997881220987</v>
+        <v>0.09962443212102785</v>
       </c>
       <c r="E31">
-        <v>-0.2992931457725702</v>
+        <v>-1.246205684642181e-05</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.000120999489424</v>
+        <v>0.9996445845218086</v>
       </c>
       <c r="C32">
-        <v>-0.4751075138340532</v>
+        <v>-0.08388179930662562</v>
       </c>
       <c r="D32">
-        <v>-0.001071946895051785</v>
+        <v>-0.0005741073985227159</v>
       </c>
       <c r="E32">
-        <v>0.001082656176446233</v>
+        <v>0.0005350718929441683</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.000069057827454</v>
+        <v>0.9995475779061251</v>
       </c>
       <c r="C33">
-        <v>-0.4972397133857588</v>
+        <v>-0.08709351617052899</v>
       </c>
       <c r="D33">
-        <v>0.3987047858620749</v>
+        <v>0.09931740680441538</v>
       </c>
       <c r="E33">
-        <v>-0.3986907687679347</v>
+        <v>-1.530053107062879e-05</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>1.00003770072859</v>
+        <v>0.9994626861576111</v>
       </c>
       <c r="C34">
-        <v>-0.514976928361789</v>
+        <v>-0.08990364091873457</v>
       </c>
       <c r="D34">
-        <v>0.3984921899955429</v>
+        <v>0.1492142203619985</v>
       </c>
       <c r="E34">
-        <v>-0.3984751295756913</v>
+        <v>-1.613584334208347e-05</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1.000026870643594</v>
+        <v>0.9993959955619092</v>
       </c>
       <c r="C35">
-        <v>-0.5283202439965178</v>
+        <v>-0.09210991899787836</v>
       </c>
       <c r="D35">
-        <v>-0.499987537580221</v>
+        <v>-0.0008714303182153127</v>
       </c>
       <c r="E35">
-        <v>0.001709738620909327</v>
+        <v>0.0008255434078185026</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9999757097909894</v>
+        <v>0.9993596384896918</v>
       </c>
       <c r="C36">
-        <v>-0.5393072289565728</v>
+        <v>-0.09331709789726081</v>
       </c>
       <c r="D36">
-        <v>0.6982101188301166</v>
+        <v>0.199083595258846</v>
       </c>
       <c r="E36">
-        <v>-0.6981891000646154</v>
+        <v>-1.713842019043782e-05</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.000230172644269</v>
+        <v>0.9998473922267744</v>
       </c>
       <c r="C37">
-        <v>-0.4269321340013721</v>
+        <v>-0.07442091930416081</v>
       </c>
       <c r="D37">
-        <v>-0.000226605920603655</v>
+        <v>-9.455153812376238e-05</v>
       </c>
       <c r="E37">
-        <v>0.0002287226286481556</v>
+        <v>6.120540632893694e-05</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1.000195557277598</v>
+        <v>0.999762274754563</v>
       </c>
       <c r="C38">
-        <v>-0.4432882713615922</v>
+        <v>-0.07560649800710616</v>
       </c>
       <c r="D38">
-        <v>-0.4999985951276029</v>
+        <v>-5.44263255413496e-05</v>
       </c>
       <c r="E38">
-        <v>0.000212158309709904</v>
+        <v>1.819956879922044e-05</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.000028779626601</v>
+        <v>0.9997122812086745</v>
       </c>
       <c r="C39">
-        <v>-0.4566365539187149</v>
+        <v>-0.07608179143201302</v>
       </c>
       <c r="D39">
-        <v>0.3997734813458443</v>
+        <v>0.09995861740110558</v>
       </c>
       <c r="E39">
-        <v>-0.3997709907019643</v>
+        <v>-1.215414635009477e-05</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.000028775284273</v>
+        <v>0.9996822691099381</v>
       </c>
       <c r="C40">
-        <v>-0.4566369014086016</v>
+        <v>-0.0763669041386066</v>
       </c>
       <c r="D40">
-        <v>0.3997838866816653</v>
+        <v>0.1599596435001497</v>
       </c>
       <c r="E40">
-        <v>-0.3997813960344792</v>
+        <v>-1.215415804131081e-05</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.00006337311547</v>
+        <v>0.9997573986868259</v>
       </c>
       <c r="C41">
-        <v>-0.44028173968584</v>
+        <v>-0.07527612024348493</v>
       </c>
       <c r="D41">
-        <v>0.3998399412030237</v>
+        <v>0.1799421393936596</v>
       </c>
       <c r="E41">
-        <v>-0.3998384235974429</v>
+        <v>-1.159175252039436e-05</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9998248162556539</v>
+        <v>0.9994556883734675</v>
       </c>
       <c r="C42">
-        <v>-0.5029365004218924</v>
+        <v>-0.08649843733937981</v>
       </c>
       <c r="D42">
-        <v>-0.001477944128136823</v>
+        <v>-0.0008111704733788534</v>
       </c>
       <c r="E42">
-        <v>0.001490137869757464</v>
+        <v>0.0007682746080960763</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9996272499500083</v>
+        <v>0.9993154431582075</v>
       </c>
       <c r="C43">
-        <v>-0.5215184031415864</v>
+        <v>-0.0884530048351003</v>
       </c>
       <c r="D43">
-        <v>0.3982822918507696</v>
+        <v>0.1290474528080376</v>
       </c>
       <c r="E43">
-        <v>-0.398269235422683</v>
+        <v>-1.54274007169371e-05</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9996585624678918</v>
+        <v>0.9993810883698965</v>
       </c>
       <c r="C44">
-        <v>-0.5162474348873705</v>
+        <v>-0.08720779905744484</v>
       </c>
       <c r="D44">
-        <v>0.398368379866633</v>
+        <v>0.1491075752929543</v>
       </c>
       <c r="E44">
-        <v>-0.3983556959324641</v>
+        <v>-1.524692761501077e-05</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9994610870265628</v>
+        <v>0.9991658576560193</v>
       </c>
       <c r="C45">
-        <v>-0.5348246558590277</v>
+        <v>-0.08987515153384275</v>
       </c>
       <c r="D45">
-        <v>0.3980718191808427</v>
+        <v>0.2989184870918796</v>
       </c>
       <c r="E45">
-        <v>-0.398058100061695</v>
+        <v>-1.562342773350246e-05</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9998607547029679</v>
+        <v>0.9992713879553798</v>
       </c>
       <c r="C46">
-        <v>-0.5416171429510681</v>
+        <v>-0.09329461697041605</v>
       </c>
       <c r="D46">
-        <v>0.3981168871231259</v>
+        <v>0.2490319067961714</v>
       </c>
       <c r="E46">
-        <v>-0.3980953124722181</v>
+        <v>-1.700042720850786e-05</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9998513840917449</v>
+        <v>0.9993101203064813</v>
       </c>
       <c r="C47">
-        <v>-0.5492596599310701</v>
+        <v>-0.09378821792195143</v>
       </c>
       <c r="D47">
-        <v>0.2979695081553476</v>
+        <v>0.09896921340792464</v>
       </c>
       <c r="E47">
-        <v>-0.2979463976913286</v>
+        <v>-1.733465425723217e-05</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.00082054181485</v>
+        <v>1.000739582002896</v>
       </c>
       <c r="C48">
-        <v>-0.2388493521489393</v>
+        <v>-0.04769143320874834</v>
       </c>
       <c r="D48">
-        <v>-2.05865598372138e-06</v>
+        <v>-1.663329647586774e-06</v>
       </c>
       <c r="E48">
-        <v>-1.180559071853674e-06</v>
+        <v>-9.612380030588312e-07</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.000513302864211</v>
+        <v>1.000619203142557</v>
       </c>
       <c r="C49">
-        <v>-0.2779823673728393</v>
+        <v>-0.05122878087613177</v>
       </c>
       <c r="D49">
-        <v>-3.148570215822038e-06</v>
+        <v>-3.893040314100804e-08</v>
       </c>
       <c r="E49">
-        <v>-1.735728401274171e-06</v>
+        <v>-1.26843604538913e-07</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.000206530739358</v>
+        <v>1.000498828092247</v>
       </c>
       <c r="C50">
-        <v>-0.317139405425304</v>
+        <v>-0.05476697946264548</v>
       </c>
       <c r="D50">
-        <v>-4.564034446598424e-05</v>
+        <v>-7.083465629602386e-06</v>
       </c>
       <c r="E50">
-        <v>-2.153044472059683e-06</v>
+        <v>6.584840960980631e-07</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.000119068017713</v>
+        <v>1.000460535021962</v>
       </c>
       <c r="C51">
-        <v>-0.3270051045191191</v>
+        <v>-0.05589323187255275</v>
       </c>
       <c r="D51">
-        <v>1.120025044469608</v>
+        <v>0.2800029424065359</v>
       </c>
       <c r="E51">
-        <v>-2.479195928437213e-06</v>
+        <v>8.548132916424219e-07</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.000084108185011</v>
+        <v>1.000435357008332</v>
       </c>
       <c r="C52">
-        <v>-0.3353279305399989</v>
+        <v>-0.05663381131573367</v>
       </c>
       <c r="D52">
-        <v>1.200075842926862</v>
+        <v>0.3000104419276851</v>
       </c>
       <c r="E52">
-        <v>-1.200083624399825</v>
+        <v>1.002047560987214e-06</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.000076512020994</v>
+        <v>1.000424231341512</v>
       </c>
       <c r="C53">
-        <v>-0.3387750784044432</v>
+        <v>-0.05696109523110999</v>
       </c>
       <c r="D53">
-        <v>0.9501090371006808</v>
+        <v>0.2375155266395035</v>
       </c>
       <c r="E53">
-        <v>-0.9501172638729676</v>
+        <v>1.100214582911254e-06</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.000090572042529</v>
+        <v>1.000424230857649</v>
       </c>
       <c r="C54">
-        <v>-0.3383618320923105</v>
+        <v>-0.05696115639987943</v>
       </c>
       <c r="D54">
-        <v>-0.3000055089072129</v>
+        <v>1.744074346957323e-05</v>
       </c>
       <c r="E54">
-        <v>-0.0001334494506183401</v>
+        <v>-1.384503465642721e-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9999875984724159</v>
+        <v>1.000416748784416</v>
       </c>
       <c r="C55">
-        <v>-0.3464500880296919</v>
+        <v>-0.05717960389396873</v>
       </c>
       <c r="D55">
-        <v>0.899815746988521</v>
+        <v>0.2249710332919345</v>
       </c>
       <c r="E55">
-        <v>-2.141727823657021e-06</v>
+        <v>1.198422904398429e-06</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.9998110825560164</v>
+        <v>1.000345208705774</v>
       </c>
       <c r="C56">
-        <v>-0.3745313638325077</v>
+        <v>-0.05928262866782431</v>
       </c>
       <c r="D56">
-        <v>1.29966293025758</v>
+        <v>0.3249465908342515</v>
       </c>
       <c r="E56">
-        <v>-1.299668785832119</v>
+        <v>1.689267925066766e-06</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.9996643951127117</v>
+        <v>1.000288891340722</v>
       </c>
       <c r="C57">
-        <v>-0.3973374404993696</v>
+        <v>-0.06093814618208985</v>
       </c>
       <c r="D57">
-        <v>0.9695067015794328</v>
+        <v>0.2424220718706315</v>
       </c>
       <c r="E57">
-        <v>-1.919113967329897e-06</v>
+        <v>2.131033493827609e-06</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.999577736034482</v>
+        <v>1.000250354051433</v>
       </c>
       <c r="C58">
-        <v>-0.415743333184087</v>
+        <v>-0.06207093572452214</v>
       </c>
       <c r="D58">
-        <v>0.999378501808393</v>
+        <v>0.2499028916431088</v>
       </c>
       <c r="E58">
-        <v>-0.9993835619251433</v>
+        <v>2.467633554710676e-06</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9994995288323182</v>
+        <v>1.000217101708134</v>
       </c>
       <c r="C59">
-        <v>-0.4331554398907389</v>
+        <v>-0.06304819821151779</v>
       </c>
       <c r="D59">
-        <v>-0.0007605277887951487</v>
+        <v>-0.0001177278760947477</v>
       </c>
       <c r="E59">
-        <v>0.0007559607748820327</v>
+        <v>0.0001262235100166473</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9994372845306275</v>
+        <v>1.000197180522524</v>
       </c>
       <c r="C60">
-        <v>-0.4442507392345495</v>
+        <v>-0.06363423149839892</v>
       </c>
       <c r="D60">
-        <v>0.8111729312358044</v>
+        <v>0.1475715619378792</v>
       </c>
       <c r="E60">
-        <v>-0.8111772685866907</v>
+        <v>2.958493910681405e-06</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.999393567906849</v>
+        <v>1.00018417324968</v>
       </c>
       <c r="C61">
-        <v>-0.4520469510868164</v>
+        <v>-0.06401688510883771</v>
       </c>
       <c r="D61">
-        <v>1.04912720827858</v>
+        <v>0.1489647465941087</v>
       </c>
       <c r="E61">
-        <v>-1.049131378014524</v>
+        <v>3.056657874121152e-06</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9993766151867124</v>
+        <v>1.000179006354743</v>
       </c>
       <c r="C62">
-        <v>-0.4550709914403444</v>
+        <v>-0.06416888894987766</v>
       </c>
       <c r="D62">
-        <v>0.8671075694611259</v>
+        <v>0.1286621482933663</v>
       </c>
       <c r="E62">
-        <v>-0.8671116639564505</v>
+        <v>3.09874177154961e-06</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9994858914822263</v>
+        <v>1.000205673063917</v>
       </c>
       <c r="C63">
-        <v>-0.4385743212388087</v>
+        <v>-0.06338400865013187</v>
       </c>
       <c r="D63">
-        <v>0.8711921108147537</v>
+        <v>0.1160766891797183</v>
       </c>
       <c r="E63">
-        <v>-0.8711964825648195</v>
+        <v>2.937452003749726e-06</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9994892887761517</v>
+        <v>1.000198905798569</v>
       </c>
       <c r="C64">
-        <v>-0.4409555954278133</v>
+        <v>-0.0635826960533</v>
       </c>
       <c r="D64">
-        <v>0.8531613130567027</v>
+        <v>0.1685742606698506</v>
       </c>
       <c r="E64">
-        <v>-0.853165541188614</v>
+        <v>3.02158981763871e-06</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9995093637914759</v>
+        <v>1.000198908089003</v>
       </c>
       <c r="C65">
-        <v>-0.4403620905859756</v>
+        <v>-0.06358223255919219</v>
       </c>
       <c r="D65">
-        <v>-0.5000026823386864</v>
+        <v>-0.0001270137068283679</v>
       </c>
       <c r="E65">
-        <v>0.0008499558481135884</v>
+        <v>0.000136253603304229</v>
       </c>
     </row>
   </sheetData>

--- a/result/bus_final.xlsx
+++ b/result/bus_final.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.002183607538833</v>
+        <v>1.001897270197556</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-11.86198048099025</v>
+        <v>-10.30368126002596</v>
       </c>
       <c r="E2">
-        <v>-0.02044149687633869</v>
+        <v>-0.01617200088583326</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.000739582002896</v>
+        <v>1.000642658975816</v>
       </c>
       <c r="C3">
-        <v>-0.04769143320874834</v>
+        <v>-0.04145313519285804</v>
       </c>
       <c r="D3">
-        <v>-1.663329647586774e-06</v>
+        <v>-1.445264890505842e-06</v>
       </c>
       <c r="E3">
-        <v>-9.612380030588312e-07</v>
+        <v>-8.354337670752474e-07</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.000739582002896</v>
+        <v>1.000642658975816</v>
       </c>
       <c r="C4">
-        <v>-0.04769143320874834</v>
+        <v>-0.04145313519285804</v>
       </c>
       <c r="D4">
-        <v>-1.663329647586774e-06</v>
+        <v>-1.445264890505842e-06</v>
       </c>
       <c r="E4">
-        <v>-9.612380030588312e-07</v>
+        <v>-8.354337670752474e-07</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.000639173333824</v>
+        <v>1.000542242739849</v>
       </c>
       <c r="C5">
-        <v>-0.05064248038155458</v>
+        <v>-0.04440474817476881</v>
       </c>
       <c r="D5">
-        <v>-2.112679681207107e-07</v>
+        <v>-5.041133657441447e-07</v>
       </c>
       <c r="E5">
-        <v>-2.153575539794645e-07</v>
+        <v>-3.519364581629542e-07</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.000538767304721</v>
+        <v>1.000441829127612</v>
       </c>
       <c r="C6">
-        <v>-0.05359411956235027</v>
+        <v>-0.0473569534173364</v>
       </c>
       <c r="D6">
-        <v>0.1267005178890806</v>
+        <v>0.1266997423819629</v>
       </c>
       <c r="E6">
-        <v>5.004415576561195e-07</v>
+        <v>1.160496149524022e-07</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.000444297717543</v>
+        <v>1.000347352487416</v>
       </c>
       <c r="C7">
-        <v>-0.0563718009732472</v>
+        <v>-0.05013516730915525</v>
       </c>
       <c r="D7">
-        <v>0.1700912352238335</v>
+        <v>0.1700900053460969</v>
       </c>
       <c r="E7">
-        <v>1.183422060122859e-06</v>
+        <v>5.657796827295448e-07</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.000363830760296</v>
+        <v>1.000266879683549</v>
       </c>
       <c r="C8">
-        <v>-0.05873814585916631</v>
+        <v>-0.05250196523244022</v>
       </c>
       <c r="D8">
-        <v>0.1581689378199475</v>
+        <v>0.1581673102123778</v>
       </c>
       <c r="E8">
-        <v>1.795219171695379e-06</v>
+        <v>9.734763608295314e-07</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.000316189730834</v>
+        <v>1.00021923529784</v>
       </c>
       <c r="C9">
-        <v>-0.06013927711238109</v>
+        <v>-0.05390336736296912</v>
       </c>
       <c r="D9">
-        <v>0.1784546562733332</v>
+        <v>0.178452773013582</v>
       </c>
       <c r="E9">
-        <v>2.215216292068774e-06</v>
+        <v>1.262283689565196e-06</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.000276908910608</v>
+        <v>1.000179951820686</v>
       </c>
       <c r="C10">
-        <v>-0.06129461316235298</v>
+        <v>-0.05505892669339404</v>
       </c>
       <c r="D10">
-        <v>0.169338229762838</v>
+        <v>0.1693361192176572</v>
       </c>
       <c r="E10">
-        <v>2.594126253164088e-06</v>
+        <v>1.524559095775787e-06</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.000244156349319</v>
+        <v>1.000147196980066</v>
       </c>
       <c r="C11">
-        <v>-0.06225800683513202</v>
+        <v>-0.05602250665687938</v>
       </c>
       <c r="D11">
-        <v>0.1266217521779831</v>
+        <v>0.1266194711546964</v>
       </c>
       <c r="E11">
-        <v>2.87885901616508e-06</v>
+        <v>1.721836393785928e-06</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.000217336077708</v>
+        <v>1.000120374869561</v>
       </c>
       <c r="C12">
-        <v>-0.06304694909042134</v>
+        <v>-0.05681160142437295</v>
       </c>
       <c r="D12">
-        <v>0.148306329255212</v>
+        <v>0.1483039061071736</v>
       </c>
       <c r="E12">
-        <v>3.118486007273766e-06</v>
+        <v>1.888552517968165e-06</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.000197464078999</v>
+        <v>1.00010050156249</v>
       </c>
       <c r="C13">
-        <v>-0.06363152369586131</v>
+        <v>-0.05739628895781759</v>
       </c>
       <c r="D13">
-        <v>0.1496929520751331</v>
+        <v>0.1496904152806485</v>
       </c>
       <c r="E13">
-        <v>3.311694307527984e-06</v>
+        <v>2.023451234654057e-06</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.000192995411033</v>
+        <v>1.000096032773798</v>
       </c>
       <c r="C14">
-        <v>-0.06376296837383899</v>
+        <v>-0.05752775891066191</v>
       </c>
       <c r="D14">
-        <v>-0.01999314969495507</v>
+        <v>-0.01999574329541032</v>
       </c>
       <c r="E14">
-        <v>3.409579021597146e-06</v>
+        <v>2.092177114947982e-06</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.000418055953205</v>
+        <v>1.00032110846879</v>
       </c>
       <c r="C15">
-        <v>-0.05652664488057805</v>
+        <v>-0.05029004695945733</v>
       </c>
       <c r="D15">
-        <v>0.128814979326976</v>
+        <v>0.1288136259348709</v>
       </c>
       <c r="E15">
-        <v>1.214477290694196e-06</v>
+        <v>5.84117943315643e-07</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.000234871758201</v>
+        <v>1.000137910839829</v>
       </c>
       <c r="C16">
-        <v>-0.05949902356524583</v>
+        <v>-0.0532630260784155</v>
       </c>
       <c r="D16">
-        <v>0.1279961612887031</v>
+        <v>0.1279939569343716</v>
       </c>
       <c r="E16">
-        <v>1.951427526176335e-06</v>
+        <v>1.070309410779456e-06</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.000136339264774</v>
+        <v>1.000039370908954</v>
       </c>
       <c r="C17">
-        <v>-0.06008049341768287</v>
+        <v>-0.05384463541008011</v>
       </c>
       <c r="D17">
-        <v>0.1699256475313206</v>
+        <v>0.1699230104719557</v>
       </c>
       <c r="E17">
-        <v>2.068593195949373e-06</v>
+        <v>1.142939723151084e-06</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.000078204366175</v>
+        <v>0.999981231840398</v>
       </c>
       <c r="C18">
-        <v>-0.06042360115259417</v>
+        <v>-0.05418782750570611</v>
       </c>
       <c r="D18">
-        <v>0.1173712373843118</v>
+        <v>0.1173683118388186</v>
       </c>
       <c r="E18">
-        <v>2.146706690516641e-06</v>
+        <v>1.191361577501158e-06</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.000052293098744</v>
+        <v>0.9999553187019146</v>
       </c>
       <c r="C19">
-        <v>-0.0605765392966456</v>
+        <v>-0.05434080294980379</v>
       </c>
       <c r="D19">
-        <v>0.1271460397738962</v>
+        <v>0.1271429905718006</v>
       </c>
       <c r="E19">
-        <v>2.180184650426279e-06</v>
+        <v>1.212114237251103e-06</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.000283020015969</v>
+        <v>1.000186063996368</v>
       </c>
       <c r="C20">
-        <v>-0.0612585130763694</v>
+        <v>-0.05502282955430138</v>
       </c>
       <c r="D20">
-        <v>-0.02999431278889257</v>
+        <v>-0.02999654673703191</v>
       </c>
       <c r="E20">
-        <v>2.63802229146001e-06</v>
+        <v>1.55574006546518e-06</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.000160974391529</v>
+        <v>1.000064008906494</v>
       </c>
       <c r="C21">
-        <v>-0.06384687066604081</v>
+        <v>-0.05761168967664333</v>
       </c>
       <c r="D21">
-        <v>0.179073542205282</v>
+        <v>0.1790708817441258</v>
       </c>
       <c r="E21">
-        <v>3.353295357565249e-06</v>
+        <v>2.052331834148132e-06</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.000169487084572</v>
+        <v>1.00007252274969</v>
       </c>
       <c r="C22">
-        <v>-0.06390169013554975</v>
+        <v>-0.05766651983366067</v>
       </c>
       <c r="D22">
-        <v>0.1153682271699088</v>
+        <v>0.1153655099777413</v>
       </c>
       <c r="E22">
-        <v>3.452279743337063e-06</v>
+        <v>2.122159249526575e-06</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.000739582002896</v>
+        <v>1.000642658975816</v>
       </c>
       <c r="C23">
-        <v>-0.04769143320874834</v>
+        <v>-0.04145313519285804</v>
       </c>
       <c r="D23">
-        <v>-1.663329647586774e-06</v>
+        <v>-1.445264890505842e-06</v>
       </c>
       <c r="E23">
-        <v>-9.612380030588312e-07</v>
+        <v>-8.354337670752474e-07</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9985450701951295</v>
+        <v>0.9987777100016092</v>
       </c>
       <c r="C24">
-        <v>-0.08668997522891696</v>
+        <v>-0.07459738537601657</v>
       </c>
       <c r="D24">
-        <v>-1.969325951487064e-05</v>
+        <v>-1.663964217666715e-05</v>
       </c>
       <c r="E24">
-        <v>-6.55094370743893e-06</v>
+        <v>-5.548025743462803e-06</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9970823097172783</v>
+        <v>0.9974250262979203</v>
       </c>
       <c r="C25">
-        <v>-0.1127843624786694</v>
+        <v>-0.0987207811461851</v>
       </c>
       <c r="D25">
-        <v>4.999972900376965</v>
+        <v>4.999977011785451</v>
       </c>
       <c r="E25">
-        <v>-8.416050804508843e-06</v>
+        <v>-7.089332624183459e-06</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9978136703993278</v>
+        <v>0.9982657051637506</v>
       </c>
       <c r="C26">
-        <v>-0.09972759975829269</v>
+        <v>-0.08371746375452957</v>
       </c>
       <c r="D26">
-        <v>-2.638914050834108e-05</v>
+        <v>-0.7500215141658134</v>
       </c>
       <c r="E26">
-        <v>-7.749918927711358e-06</v>
+        <v>-6.392182201513889e-06</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.000739582002896</v>
+        <v>1.000642658975816</v>
       </c>
       <c r="C27">
-        <v>-0.04769143320874834</v>
+        <v>-0.04145313519285804</v>
       </c>
       <c r="D27">
-        <v>-1.663329647586774e-06</v>
+        <v>-1.445264890505842e-06</v>
       </c>
       <c r="E27">
-        <v>-9.612380030588312e-07</v>
+        <v>-8.354337670752474e-07</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.000482051773986</v>
+        <v>1.000427746698841</v>
       </c>
       <c r="C28">
-        <v>-0.05619821362738697</v>
+        <v>-0.04855062981596713</v>
       </c>
       <c r="D28">
-        <v>-7.420563983228881e-06</v>
+        <v>-5.593007907652307e-06</v>
       </c>
       <c r="E28">
-        <v>-4.292945265517968e-06</v>
+        <v>-3.235857852104743e-06</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.000224542403715</v>
+        <v>1.000212848870098</v>
       </c>
       <c r="C29">
-        <v>-0.06470937441672112</v>
+        <v>-0.05565117438269421</v>
       </c>
       <c r="D29">
-        <v>0.1999217947401365</v>
+        <v>0.199925274740506</v>
       </c>
       <c r="E29">
-        <v>-7.459059159697754e-06</v>
+        <v>-5.446732543119875e-06</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9999914194049816</v>
+        <v>1.000022331896907</v>
       </c>
       <c r="C30">
-        <v>-0.07241628497853787</v>
+        <v>-0.0619461869596874</v>
       </c>
       <c r="D30">
-        <v>-0.000192742973360308</v>
+        <v>-0.000187600345552532</v>
       </c>
       <c r="E30">
-        <v>0.0001641968003291888</v>
+        <v>0.0001671695227668064</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9998119236881834</v>
+        <v>0.9998854406487897</v>
       </c>
       <c r="C31">
-        <v>-0.07834962267729836</v>
+        <v>-0.06646668672840234</v>
       </c>
       <c r="D31">
-        <v>0.09962443212102785</v>
+        <v>0.09963109646987871</v>
       </c>
       <c r="E31">
-        <v>-1.246205684642181e-05</v>
+        <v>-8.610787145128254e-06</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9996445845218086</v>
+        <v>0.9997607018161655</v>
       </c>
       <c r="C32">
-        <v>-0.08388179930662562</v>
+        <v>-0.07058522621345802</v>
       </c>
       <c r="D32">
-        <v>-0.0005741073985227159</v>
+        <v>-0.0005659766946612123</v>
       </c>
       <c r="E32">
-        <v>0.0005350718929441683</v>
+        <v>0.000539769257215661</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9995475779061251</v>
+        <v>0.9997062915843851</v>
       </c>
       <c r="C33">
-        <v>-0.08709351617052899</v>
+        <v>-0.07238320551730887</v>
       </c>
       <c r="D33">
-        <v>0.09931740680441538</v>
+        <v>0.09932656014848774</v>
       </c>
       <c r="E33">
-        <v>-1.530053107062879e-05</v>
+        <v>-1.001346037982962e-05</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9994626861576111</v>
+        <v>0.9996639938027631</v>
       </c>
       <c r="C34">
-        <v>-0.08990364091873457</v>
+        <v>-0.07377932685885918</v>
       </c>
       <c r="D34">
-        <v>0.1492142203619985</v>
+        <v>0.1492242753322762</v>
       </c>
       <c r="E34">
-        <v>-1.613584334208347e-05</v>
+        <v>-1.032913544819471e-05</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9993959955619092</v>
+        <v>0.9996398935944936</v>
       </c>
       <c r="C35">
-        <v>-0.09210991899787836</v>
+        <v>-0.07457153702564159</v>
       </c>
       <c r="D35">
-        <v>-0.0008714303182153127</v>
+        <v>-0.3500182798543824</v>
       </c>
       <c r="E35">
-        <v>0.0008255434078185026</v>
+        <v>0.0008317808805126907</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9993596384896918</v>
+        <v>0.9996035416542497</v>
       </c>
       <c r="C36">
-        <v>-0.09331709789726081</v>
+        <v>-0.07577812936923634</v>
       </c>
       <c r="D36">
-        <v>0.199083595258846</v>
+        <v>0.1990947711480272</v>
       </c>
       <c r="E36">
-        <v>-1.713842019043782e-05</v>
+        <v>-1.068556912582174e-05</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9998473922267744</v>
+        <v>0.9998782987164905</v>
       </c>
       <c r="C37">
-        <v>-0.07442091930416081</v>
+        <v>-0.06395053621910325</v>
       </c>
       <c r="D37">
-        <v>-9.455153812376238e-05</v>
+        <v>-8.909075417365101e-05</v>
       </c>
       <c r="E37">
-        <v>6.120540632893694e-05</v>
+        <v>6.425503641354846e-05</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.999762274754563</v>
+        <v>0.9997931775163906</v>
       </c>
       <c r="C38">
-        <v>-0.07560649800710616</v>
+        <v>-0.06513594496085812</v>
       </c>
       <c r="D38">
-        <v>-5.44263255413496e-05</v>
+        <v>-4.877462563523125e-05</v>
       </c>
       <c r="E38">
-        <v>1.819956879922044e-05</v>
+        <v>2.129534061639194e-05</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9997122812086745</v>
+        <v>0.9997431823825221</v>
       </c>
       <c r="C39">
-        <v>-0.07608179143201302</v>
+        <v>-0.0656111471293572</v>
       </c>
       <c r="D39">
-        <v>0.09995861740110558</v>
+        <v>0.09996436635385202</v>
       </c>
       <c r="E39">
-        <v>-1.215414635009477e-05</v>
+        <v>-9.04235667088159e-06</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9996822691099381</v>
+        <v>0.9997131712113065</v>
       </c>
       <c r="C40">
-        <v>-0.0763669041386066</v>
+        <v>-0.06589624220955649</v>
       </c>
       <c r="D40">
-        <v>0.1599596435001497</v>
+        <v>0.1599653928318013</v>
       </c>
       <c r="E40">
-        <v>-1.215415804131081e-05</v>
+        <v>-9.042367474322821e-06</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9997573986868259</v>
+        <v>0.9997883049244796</v>
       </c>
       <c r="C41">
-        <v>-0.07527612024348493</v>
+        <v>-0.06480562283872006</v>
       </c>
       <c r="D41">
-        <v>0.1799421393936596</v>
+        <v>0.1799476979007796</v>
       </c>
       <c r="E41">
-        <v>-1.159175252039436e-05</v>
+        <v>-8.526103360503824e-06</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9994556883734675</v>
+        <v>0.9995718135623586</v>
       </c>
       <c r="C42">
-        <v>-0.08649843733937981</v>
+        <v>-0.07320105319415265</v>
       </c>
       <c r="D42">
-        <v>-0.0008111704733788534</v>
+        <v>-0.0008020844914702941</v>
       </c>
       <c r="E42">
-        <v>0.0007682746080960763</v>
+        <v>0.000773203261821153</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9993154431582075</v>
+        <v>0.9994315774506278</v>
       </c>
       <c r="C43">
-        <v>-0.0884530048351003</v>
+        <v>-0.07515506490752967</v>
       </c>
       <c r="D43">
-        <v>0.1290474528080376</v>
+        <v>0.1290570176060378</v>
       </c>
       <c r="E43">
-        <v>-1.54274007169371e-05</v>
+        <v>-1.038308878049349e-05</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9993810883698965</v>
+        <v>0.9994972170848666</v>
       </c>
       <c r="C44">
-        <v>-0.08720779905744484</v>
+        <v>-0.07391015195961249</v>
       </c>
       <c r="D44">
-        <v>0.1491075752929543</v>
+        <v>0.1491170260101127</v>
       </c>
       <c r="E44">
-        <v>-1.524692761501077e-05</v>
+        <v>-1.025806354232309e-05</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9991658576560193</v>
+        <v>0.9992820039421314</v>
       </c>
       <c r="C45">
-        <v>-0.08987515153384275</v>
+        <v>-0.07657678187448924</v>
       </c>
       <c r="D45">
-        <v>0.2989184870918796</v>
+        <v>0.2989284184237285</v>
       </c>
       <c r="E45">
-        <v>-1.562342773350246e-05</v>
+        <v>-1.051888314247923e-05</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9992713879553798</v>
+        <v>0.9995153100823662</v>
       </c>
       <c r="C46">
-        <v>-0.09329461697041605</v>
+        <v>-0.07575552942021566</v>
       </c>
       <c r="D46">
-        <v>0.2490319067961714</v>
+        <v>0.2490434756212032</v>
       </c>
       <c r="E46">
-        <v>-1.700042720850786e-05</v>
+        <v>-1.063648658202062e-05</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9993101203064813</v>
+        <v>0.9995540290360538</v>
       </c>
       <c r="C47">
-        <v>-0.09378821792195143</v>
+        <v>-0.07624888761180669</v>
       </c>
       <c r="D47">
-        <v>0.09896921340792464</v>
+        <v>0.09898115340767609</v>
       </c>
       <c r="E47">
-        <v>-1.733465425723217e-05</v>
+        <v>-1.07553465815844e-05</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.000739582002896</v>
+        <v>1.000642658975816</v>
       </c>
       <c r="C48">
-        <v>-0.04769143320874834</v>
+        <v>-0.04145313519285804</v>
       </c>
       <c r="D48">
-        <v>-1.663329647586774e-06</v>
+        <v>-1.445264890505842e-06</v>
       </c>
       <c r="E48">
-        <v>-9.612380030588312e-07</v>
+        <v>-8.354337670752474e-07</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.000619203142557</v>
+        <v>1.000543358777676</v>
       </c>
       <c r="C49">
-        <v>-0.05122878087613177</v>
+        <v>-0.04437149917284364</v>
       </c>
       <c r="D49">
-        <v>-3.893040314100804e-08</v>
+        <v>1.711356188133758e-07</v>
       </c>
       <c r="E49">
-        <v>-1.26843604538913e-07</v>
+        <v>-5.192276473327213e-09</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.000498828092247</v>
+        <v>1.000444061183732</v>
       </c>
       <c r="C50">
-        <v>-0.05476697946264548</v>
+        <v>-0.04729044222654773</v>
       </c>
       <c r="D50">
-        <v>-7.083465629602386e-06</v>
+        <v>-6.859275612898138e-06</v>
       </c>
       <c r="E50">
-        <v>6.584840960980631e-07</v>
+        <v>7.873764910119405e-07</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.000460535021962</v>
+        <v>1.000405765990947</v>
       </c>
       <c r="C51">
-        <v>-0.05589323187255275</v>
+        <v>-0.04841681780513459</v>
       </c>
       <c r="D51">
-        <v>0.2800029424065359</v>
+        <v>0.2800031025057356</v>
       </c>
       <c r="E51">
-        <v>8.548132916424219e-07</v>
+        <v>9.507765256014118e-07</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.000435357008332</v>
+        <v>1.000380586582663</v>
       </c>
       <c r="C52">
-        <v>-0.05663381131573367</v>
+        <v>-0.04915747823076295</v>
       </c>
       <c r="D52">
-        <v>0.3000104419276851</v>
+        <v>0.3000105539607916</v>
       </c>
       <c r="E52">
-        <v>1.002047560987214e-06</v>
+        <v>1.073320873833615e-06</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.000424231341512</v>
+        <v>1.000369460297522</v>
       </c>
       <c r="C53">
-        <v>-0.05696109523110999</v>
+        <v>-0.04948479791113334</v>
       </c>
       <c r="D53">
-        <v>0.2375155266395035</v>
+        <v>0.2375156066098972</v>
       </c>
       <c r="E53">
-        <v>1.100214582911254e-06</v>
+        <v>1.155020119418906e-06</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.000424230857649</v>
+        <v>1.000369459809517</v>
       </c>
       <c r="C54">
-        <v>-0.05696115639987943</v>
+        <v>-0.04948485904975085</v>
       </c>
       <c r="D54">
-        <v>1.744074346957323e-05</v>
+        <v>1.750467992364909e-05</v>
       </c>
       <c r="E54">
-        <v>-1.384503465642721e-05</v>
+        <v>-1.379846193949784e-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.000416748784416</v>
+        <v>1.000383060461808</v>
       </c>
       <c r="C55">
-        <v>-0.05717960389396873</v>
+        <v>-0.04908346342067997</v>
       </c>
       <c r="D55">
-        <v>0.2249710332919345</v>
+        <v>0.2249713516780611</v>
       </c>
       <c r="E55">
-        <v>1.198422904398429e-06</v>
+        <v>1.375717255429522e-06</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.000345208705774</v>
+        <v>1.000332598607336</v>
       </c>
       <c r="C56">
-        <v>-0.05928262866782431</v>
+        <v>-0.05056669993879868</v>
       </c>
       <c r="D56">
-        <v>0.3249465908342515</v>
+        <v>0.3249470131994456</v>
       </c>
       <c r="E56">
-        <v>1.689267925066766e-06</v>
+        <v>1.920037782958764e-06</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.000288891340722</v>
+        <v>1.000297359090814</v>
       </c>
       <c r="C57">
-        <v>-0.06093814618208985</v>
+        <v>-0.05160228564847357</v>
       </c>
       <c r="D57">
-        <v>0.2424220718706315</v>
+        <v>0.2424226019010055</v>
       </c>
       <c r="E57">
-        <v>2.131033493827609e-06</v>
+        <v>2.417169142559199e-06</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.000250354051433</v>
+        <v>1.000276888115341</v>
       </c>
       <c r="C58">
-        <v>-0.06207093572452214</v>
+        <v>-0.05220362999598331</v>
       </c>
       <c r="D58">
-        <v>0.2499028916431088</v>
+        <v>0.2499035117558272</v>
       </c>
       <c r="E58">
-        <v>2.467633554710676e-06</v>
+        <v>2.800124525630408e-06</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.000217101708134</v>
+        <v>1.000264712574786</v>
       </c>
       <c r="C59">
-        <v>-0.06304819821151779</v>
+        <v>-0.05256082669824121</v>
       </c>
       <c r="D59">
-        <v>-0.0001177278760947477</v>
+        <v>-0.4499935981897784</v>
       </c>
       <c r="E59">
-        <v>0.0001262235100166473</v>
+        <v>0.0001266061047460211</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.000197180522524</v>
+        <v>1.000244792197567</v>
       </c>
       <c r="C60">
-        <v>-0.06363423149839892</v>
+        <v>-0.05314680408336969</v>
       </c>
       <c r="D60">
-        <v>0.1475715619378792</v>
+        <v>0.1475723211782464</v>
       </c>
       <c r="E60">
-        <v>2.958493910681405e-06</v>
+        <v>3.362560591933821e-06</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.00018417324968</v>
+        <v>1.000231785449296</v>
       </c>
       <c r="C61">
-        <v>-0.06401688510883771</v>
+        <v>-0.05352942118981676</v>
       </c>
       <c r="D61">
-        <v>0.1489647465941087</v>
+        <v>0.1489655337553583</v>
       </c>
       <c r="E61">
-        <v>3.056657874121152e-06</v>
+        <v>3.475045834980007e-06</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.000179006354743</v>
+        <v>1.000226618759468</v>
       </c>
       <c r="C62">
-        <v>-0.06416888894987766</v>
+        <v>-0.05368141052753605</v>
       </c>
       <c r="D62">
-        <v>0.1286621482933663</v>
+        <v>0.1286629473781782</v>
       </c>
       <c r="E62">
-        <v>3.09874177154961e-06</v>
+        <v>3.523256224019269e-06</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.000205673063917</v>
+        <v>1.000253284355988</v>
       </c>
       <c r="C63">
-        <v>-0.06338400865013187</v>
+        <v>-0.05289660507174689</v>
       </c>
       <c r="D63">
-        <v>0.1160766891797183</v>
+        <v>0.1160774424337826</v>
       </c>
       <c r="E63">
-        <v>2.937452003749726e-06</v>
+        <v>3.338448857665298e-06</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.000198905798569</v>
+        <v>1.000246517332695</v>
       </c>
       <c r="C64">
-        <v>-0.0635826960533</v>
+        <v>-0.05309527349548651</v>
       </c>
       <c r="D64">
-        <v>0.1685742606698506</v>
+        <v>0.168575037835042</v>
       </c>
       <c r="E64">
-        <v>3.02158981763871e-06</v>
+        <v>3.434858722833829e-06</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.000198908089003</v>
+        <v>1.000246519582684</v>
       </c>
       <c r="C65">
-        <v>-0.06358223255919219</v>
+        <v>-0.05309481001298202</v>
       </c>
       <c r="D65">
-        <v>-0.0001270137068283679</v>
+        <v>-0.0001262246095969422</v>
       </c>
       <c r="E65">
-        <v>0.000136253603304229</v>
+        <v>0.0001366730053444463</v>
       </c>
     </row>
   </sheetData>
